--- a/data/example datasets for statistics/mx 69088 C/p.xlsx
+++ b/data/example datasets for statistics/mx 69088 C/p.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="188">
   <si>
     <t>file id</t>
   </si>
@@ -47,12 +47,6 @@
     <t>organ</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>mx sample id</t>
-  </si>
-  <si>
     <t>110625baasa12_1</t>
   </si>
   <si>
@@ -68,57 +62,36 @@
     <t>HepG2 cell</t>
   </si>
   <si>
-    <t xml:space="preserve">10mM Glucosamine  - 0.17 hr </t>
-  </si>
-  <si>
-    <t>69111</t>
-  </si>
-  <si>
     <t>110624baasa32_1</t>
   </si>
   <si>
     <t>GLM-2</t>
   </si>
   <si>
-    <t>69112</t>
-  </si>
-  <si>
     <t>110624baasa07_1</t>
   </si>
   <si>
     <t>GLM-3</t>
   </si>
   <si>
-    <t>69113</t>
-  </si>
-  <si>
     <t>110624baasa36_1</t>
   </si>
   <si>
     <t>GLM-4</t>
   </si>
   <si>
-    <t>69488</t>
-  </si>
-  <si>
     <t>110625baasa26_1</t>
   </si>
   <si>
     <t>GLM-5</t>
   </si>
   <si>
-    <t>69489</t>
-  </si>
-  <si>
     <t>110624baasa29_1</t>
   </si>
   <si>
     <t>GLM-6</t>
   </si>
   <si>
-    <t>69490</t>
-  </si>
-  <si>
     <t>110625baasa04_1</t>
   </si>
   <si>
@@ -128,57 +101,36 @@
     <t>g10-0.17-1</t>
   </si>
   <si>
-    <t>10mM Glucose  - 0.17 hr</t>
-  </si>
-  <si>
-    <t>69104</t>
-  </si>
-  <si>
     <t>110625baasa11_1</t>
   </si>
   <si>
     <t>g10-0.17-2</t>
   </si>
   <si>
-    <t>69105</t>
-  </si>
-  <si>
     <t>110625baasa27_1</t>
   </si>
   <si>
     <t>g10-0.17-3</t>
   </si>
   <si>
-    <t>69106</t>
-  </si>
-  <si>
     <t>110624baasa30_1</t>
   </si>
   <si>
     <t>g10-0.17-4</t>
   </si>
   <si>
-    <t>69107</t>
-  </si>
-  <si>
     <t>110624baasa23_1</t>
   </si>
   <si>
     <t>g10-0.17-5</t>
   </si>
   <si>
-    <t>69108</t>
-  </si>
-  <si>
     <t>110625baasa14_1</t>
   </si>
   <si>
     <t>g10-0.17-6</t>
   </si>
   <si>
-    <t>69109</t>
-  </si>
-  <si>
     <t>110624baasa15_1</t>
   </si>
   <si>
@@ -188,57 +140,36 @@
     <t>g10-1-1</t>
   </si>
   <si>
-    <t>10mM Glucose  - 1 hr</t>
-  </si>
-  <si>
-    <t>69143</t>
-  </si>
-  <si>
     <t>110624baasa12_1</t>
   </si>
   <si>
     <t>g10-1-2</t>
   </si>
   <si>
-    <t>69144</t>
-  </si>
-  <si>
     <t>110624baasa46_1</t>
   </si>
   <si>
     <t>g10-1-3</t>
   </si>
   <si>
-    <t>69145</t>
-  </si>
-  <si>
     <t>110625baasa19_1</t>
   </si>
   <si>
     <t>g10-1-4</t>
   </si>
   <si>
-    <t>69146</t>
-  </si>
-  <si>
     <t>110625baasa03_1</t>
   </si>
   <si>
     <t>g10-1-5</t>
   </si>
   <si>
-    <t>69147</t>
-  </si>
-  <si>
     <t>110625baasa22_1</t>
   </si>
   <si>
     <t>g10-1-6</t>
   </si>
   <si>
-    <t>69148</t>
-  </si>
-  <si>
     <t>110624baasa20_1</t>
   </si>
   <si>
@@ -248,57 +179,36 @@
     <t>g10-6-1</t>
   </si>
   <si>
-    <t>10mM Glucose  - 6 hrs</t>
-  </si>
-  <si>
-    <t>69129</t>
-  </si>
-  <si>
     <t>110624baasa05_1</t>
   </si>
   <si>
     <t>g10-6-2</t>
   </si>
   <si>
-    <t>69130</t>
-  </si>
-  <si>
     <t>110625baasa21_1</t>
   </si>
   <si>
     <t>g10-6-3</t>
   </si>
   <si>
-    <t>69131</t>
-  </si>
-  <si>
     <t>110625baasa09_1</t>
   </si>
   <si>
     <t>g10-6-4</t>
   </si>
   <si>
-    <t>69132</t>
-  </si>
-  <si>
     <t>110624baasa42_1</t>
   </si>
   <si>
     <t>g10-6-5</t>
   </si>
   <si>
-    <t>69133</t>
-  </si>
-  <si>
     <t>110624baasa31_1</t>
   </si>
   <si>
     <t>g10-6-6</t>
   </si>
   <si>
-    <t>69134</t>
-  </si>
-  <si>
     <t>110624baasa03_1</t>
   </si>
   <si>
@@ -308,57 +218,36 @@
     <t>g10-24-1</t>
   </si>
   <si>
-    <t>10mM Glucose  - 24 hrs</t>
-  </si>
-  <si>
-    <t>69136</t>
-  </si>
-  <si>
     <t>110624baasa47_1</t>
   </si>
   <si>
     <t>g10-24-2</t>
   </si>
   <si>
-    <t>69137</t>
-  </si>
-  <si>
     <t>110624baasa33_1</t>
   </si>
   <si>
     <t>g10-24-3</t>
   </si>
   <si>
-    <t>69138</t>
-  </si>
-  <si>
     <t>110624baasa35_1</t>
   </si>
   <si>
     <t>g10-24-4</t>
   </si>
   <si>
-    <t>69139</t>
-  </si>
-  <si>
     <t>110624baasa24_1</t>
   </si>
   <si>
     <t>g10-24-5</t>
   </si>
   <si>
-    <t>69140</t>
-  </si>
-  <si>
     <t>110625baasa18_1</t>
   </si>
   <si>
     <t>g10-24-6</t>
   </si>
   <si>
-    <t>69141</t>
-  </si>
-  <si>
     <t>110624baasa14_1</t>
   </si>
   <si>
@@ -368,57 +257,36 @@
     <t>G5-0.17-1</t>
   </si>
   <si>
-    <t xml:space="preserve">5mM Glucose  - 0.17 hr </t>
-  </si>
-  <si>
-    <t>69115</t>
-  </si>
-  <si>
     <t>110625baasa25_1</t>
   </si>
   <si>
     <t>G5-0.17-2</t>
   </si>
   <si>
-    <t>69116</t>
-  </si>
-  <si>
     <t>110625baasa16_1</t>
   </si>
   <si>
     <t>G5-0.17-3</t>
   </si>
   <si>
-    <t>69117</t>
-  </si>
-  <si>
     <t>110624baasa50_1</t>
   </si>
   <si>
     <t>G5-0.17-4</t>
   </si>
   <si>
-    <t>69118</t>
-  </si>
-  <si>
     <t>110624baasa09_1</t>
   </si>
   <si>
     <t>G5-0.17-5</t>
   </si>
   <si>
-    <t>69119</t>
-  </si>
-  <si>
     <t>110624baasa34_1</t>
   </si>
   <si>
     <t>G5-0.17-6</t>
   </si>
   <si>
-    <t>69120</t>
-  </si>
-  <si>
     <t>110624baasa26_1</t>
   </si>
   <si>
@@ -428,57 +296,36 @@
     <t>G5-1-1</t>
   </si>
   <si>
-    <t>5mM Glucose  - 1 hr</t>
-  </si>
-  <si>
-    <t>69122</t>
-  </si>
-  <si>
     <t>110624baasa22_1</t>
   </si>
   <si>
     <t>G5-1-2</t>
   </si>
   <si>
-    <t>69123</t>
-  </si>
-  <si>
     <t>110624baasa02_1</t>
   </si>
   <si>
     <t>G5-1-3</t>
   </si>
   <si>
-    <t>69124</t>
-  </si>
-  <si>
     <t>110625baasa17_1</t>
   </si>
   <si>
     <t>G5-1-4</t>
   </si>
   <si>
-    <t>69125</t>
-  </si>
-  <si>
     <t>110624baasa41_1</t>
   </si>
   <si>
     <t>G5-1-5</t>
   </si>
   <si>
-    <t>69126</t>
-  </si>
-  <si>
     <t>110624baasa11_1</t>
   </si>
   <si>
     <t>G5-1-6</t>
   </si>
   <si>
-    <t>69127</t>
-  </si>
-  <si>
     <t>110624baasa04_1</t>
   </si>
   <si>
@@ -488,57 +335,36 @@
     <t>G5-6-1</t>
   </si>
   <si>
-    <t>5mM Glucose  - 6 hrs</t>
-  </si>
-  <si>
-    <t>69090</t>
-  </si>
-  <si>
     <t>110625baasa06_1</t>
   </si>
   <si>
     <t>G5-6-2</t>
   </si>
   <si>
-    <t>69091</t>
-  </si>
-  <si>
     <t>110625baasa13_1</t>
   </si>
   <si>
     <t>G5-6-3</t>
   </si>
   <si>
-    <t>69092</t>
-  </si>
-  <si>
     <t>110624baasa25_1</t>
   </si>
   <si>
     <t>G5-6-4</t>
   </si>
   <si>
-    <t>69093</t>
-  </si>
-  <si>
     <t>110624baasa21_1</t>
   </si>
   <si>
     <t>G5-6-5</t>
   </si>
   <si>
-    <t>69094</t>
-  </si>
-  <si>
     <t>110624baasa18_1</t>
   </si>
   <si>
     <t>G5-6-6</t>
   </si>
   <si>
-    <t>69095</t>
-  </si>
-  <si>
     <t>110625baasa20_1</t>
   </si>
   <si>
@@ -548,57 +374,36 @@
     <t>G5-24-1</t>
   </si>
   <si>
-    <t>5mM Glucose  - 24 hrs</t>
-  </si>
-  <si>
-    <t>69097</t>
-  </si>
-  <si>
     <t>110624baasa38_1</t>
   </si>
   <si>
     <t>G5-24-2</t>
   </si>
   <si>
-    <t>69098</t>
-  </si>
-  <si>
     <t>110625baasa10_1</t>
   </si>
   <si>
     <t>G5-24-3</t>
   </si>
   <si>
-    <t>69099</t>
-  </si>
-  <si>
     <t>110624baasa48_1</t>
   </si>
   <si>
     <t>G5-24-4</t>
   </si>
   <si>
-    <t>69100</t>
-  </si>
-  <si>
     <t>110625baasa02_1</t>
   </si>
   <si>
     <t>G5-24-5</t>
   </si>
   <si>
-    <t>69101</t>
-  </si>
-  <si>
     <t>110625baasa24_1</t>
   </si>
   <si>
     <t>G5-24-6</t>
   </si>
   <si>
-    <t>69102</t>
-  </si>
-  <si>
     <t>110624baasa44_1</t>
   </si>
   <si>
@@ -608,57 +413,36 @@
     <t>g-f-0.17-1</t>
   </si>
   <si>
-    <t>5mM Glucose + 5mM Fructose  - 0.17 hr</t>
-  </si>
-  <si>
-    <t>69171</t>
-  </si>
-  <si>
     <t>110625baasa01_1</t>
   </si>
   <si>
     <t>g-f-0.17-2</t>
   </si>
   <si>
-    <t>69172</t>
-  </si>
-  <si>
     <t>110624baasa16_1</t>
   </si>
   <si>
     <t>g-f-0.17-3</t>
   </si>
   <si>
-    <t>69173</t>
-  </si>
-  <si>
     <t>110624baasa27_1</t>
   </si>
   <si>
     <t>g-f-0.17-4</t>
   </si>
   <si>
-    <t>69174</t>
-  </si>
-  <si>
     <t>110624baasa28_1</t>
   </si>
   <si>
     <t>g-f-0.17-5</t>
   </si>
   <si>
-    <t>69175</t>
-  </si>
-  <si>
     <t>110624baasa43_1</t>
   </si>
   <si>
     <t>g-f-0.17-6</t>
   </si>
   <si>
-    <t>69176</t>
-  </si>
-  <si>
     <t>110625baasa08_1</t>
   </si>
   <si>
@@ -668,57 +452,36 @@
     <t>g-f-1-1</t>
   </si>
   <si>
-    <t>5mM Glucose + 5mM Fructose  - 1 hr</t>
-  </si>
-  <si>
-    <t>69157</t>
-  </si>
-  <si>
     <t>110624baasa01_1</t>
   </si>
   <si>
     <t>g-f-1-2</t>
   </si>
   <si>
-    <t>69158</t>
-  </si>
-  <si>
     <t>110625baasa15_1</t>
   </si>
   <si>
     <t>g-f-1-3</t>
   </si>
   <si>
-    <t>69159</t>
-  </si>
-  <si>
     <t>110624baasa10_1</t>
   </si>
   <si>
     <t>g-f-1-4</t>
   </si>
   <si>
-    <t>69160</t>
-  </si>
-  <si>
     <t>110624baasa08_1</t>
   </si>
   <si>
     <t>g-f-1-5</t>
   </si>
   <si>
-    <t>69161</t>
-  </si>
-  <si>
     <t>110625baasa23_1</t>
   </si>
   <si>
     <t>g-f-1-6</t>
   </si>
   <si>
-    <t>69162</t>
-  </si>
-  <si>
     <t>110624baasa13_1</t>
   </si>
   <si>
@@ -728,57 +491,36 @@
     <t>g-f-6-1</t>
   </si>
   <si>
-    <t>5mM Glucose + 5mM Fructose  - 6 hrs</t>
-  </si>
-  <si>
-    <t>69164</t>
-  </si>
-  <si>
     <t>110624baasa17_1</t>
   </si>
   <si>
     <t>g-f-6-2</t>
   </si>
   <si>
-    <t>69165</t>
-  </si>
-  <si>
     <t>110624baasa49_1</t>
   </si>
   <si>
     <t>g-f-6-3</t>
   </si>
   <si>
-    <t>69166</t>
-  </si>
-  <si>
     <t>110624baasa39_1</t>
   </si>
   <si>
     <t>g-f-6-4</t>
   </si>
   <si>
-    <t>69167</t>
-  </si>
-  <si>
     <t>110624baasa19_1</t>
   </si>
   <si>
     <t>g-f-6-5</t>
   </si>
   <si>
-    <t>69168</t>
-  </si>
-  <si>
     <t>110625baasa05_1</t>
   </si>
   <si>
     <t>g-f-6-6</t>
   </si>
   <si>
-    <t>69169</t>
-  </si>
-  <si>
     <t>110624baasa06_1</t>
   </si>
   <si>
@@ -788,55 +530,64 @@
     <t>g-f-24-1</t>
   </si>
   <si>
-    <t>5mM Glucose + 5mM Fructose  - 24 hrs</t>
-  </si>
-  <si>
-    <t>69150</t>
-  </si>
-  <si>
     <t>110624baasa40_1</t>
   </si>
   <si>
     <t>g-f-24-2</t>
   </si>
   <si>
-    <t>69151</t>
-  </si>
-  <si>
     <t>110624baasa37_1</t>
   </si>
   <si>
     <t>g-f-24-3</t>
   </si>
   <si>
-    <t>69152</t>
-  </si>
-  <si>
     <t>110625baasa28_1</t>
   </si>
   <si>
     <t>g-f-24-4</t>
   </si>
   <si>
-    <t>69153</t>
-  </si>
-  <si>
     <t>110624baasa45_1</t>
   </si>
   <si>
     <t>g-f-24-5</t>
   </si>
   <si>
-    <t>69154</t>
-  </si>
-  <si>
     <t>110625baasa07_1</t>
   </si>
   <si>
     <t>g-f-24-6</t>
   </si>
   <si>
-    <t>69155</t>
+    <t xml:space="preserve"> 0.17 hr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10mM Glucose  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.17 hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5mM Glucose  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5mM Glucose + 5mM Fructose  </t>
+  </si>
+  <si>
+    <t>group1</t>
+  </si>
+  <si>
+    <t>group2</t>
   </si>
 </sst>
 </file>
@@ -1244,11 +995,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:I79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="34.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -1273,18 +1027,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>1727837</v>
@@ -1293,27 +1047,27 @@
         <v>1693294</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6">
         <v>1350112</v>
@@ -1322,27 +1076,27 @@
         <v>1515965</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>1329255</v>
@@ -1351,27 +1105,27 @@
         <v>1783678</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <v>1638626</v>
@@ -1380,27 +1134,27 @@
         <v>1710429</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>1615724</v>
@@ -1409,27 +1163,27 @@
         <v>1593891</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="9">
         <v>1502645</v>
@@ -1438,27 +1192,27 @@
         <v>1631247</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6">
         <v>1497685</v>
@@ -1467,27 +1221,27 @@
         <v>1501336</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3">
         <v>1610945</v>
@@ -1496,27 +1250,27 @@
         <v>1729508</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3">
         <v>1483818</v>
@@ -1525,27 +1279,27 @@
         <v>1265148</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6">
         <v>1481965</v>
@@ -1554,27 +1308,27 @@
         <v>1691457</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>1488643</v>
@@ -1583,27 +1337,27 @@
         <v>1632074</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9">
         <v>1429102</v>
@@ -1612,27 +1366,27 @@
         <v>1652141</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3">
         <v>1577488</v>
@@ -1641,27 +1395,27 @@
         <v>1847841</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6">
         <v>1257129</v>
@@ -1670,27 +1424,27 @@
         <v>1788105</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3">
         <v>1684122</v>
@@ -1699,27 +1453,27 @@
         <v>1650846</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3">
         <v>2118882</v>
@@ -1728,27 +1482,27 @@
         <v>1691909</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <v>1631556</v>
@@ -1757,27 +1511,27 @@
         <v>1600531</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C19" s="9">
         <v>1935448</v>
@@ -1786,27 +1540,27 @@
         <v>1660418</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3">
         <v>1730373</v>
@@ -1815,27 +1569,27 @@
         <v>1801153</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3">
         <v>1596809</v>
@@ -1844,27 +1598,27 @@
         <v>1754302</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6">
         <v>1396658</v>
@@ -1873,27 +1627,27 @@
         <v>1512520</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3">
         <v>1858295</v>
@@ -1902,27 +1656,27 @@
         <v>1634728</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6">
         <v>1704273</v>
@@ -1931,27 +1685,27 @@
         <v>1577178</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>87</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C25" s="9">
         <v>1659241</v>
@@ -1960,27 +1714,27 @@
         <v>1655263</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>90</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3">
         <v>1913826</v>
@@ -1989,27 +1743,27 @@
         <v>1673169</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3">
         <v>1597903</v>
@@ -2018,27 +1772,27 @@
         <v>1454599</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3">
         <v>1764506</v>
@@ -2047,27 +1801,27 @@
         <v>1573501</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3">
         <v>1594129</v>
@@ -2076,27 +1830,27 @@
         <v>1700406</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6">
         <v>1739271</v>
@@ -2105,27 +1859,27 @@
         <v>1581041</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9">
         <v>2067912</v>
@@ -2134,27 +1888,27 @@
         <v>1744493</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C32" s="12">
         <v>1391003</v>
@@ -2163,27 +1917,27 @@
         <v>1781751</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C33" s="14">
         <v>1850722</v>
@@ -2192,27 +1946,27 @@
         <v>1762104</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C34" s="12">
         <v>1651094</v>
@@ -2221,27 +1975,27 @@
         <v>1626025</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C35" s="14">
         <v>1407659</v>
@@ -2250,27 +2004,27 @@
         <v>1576859</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C36" s="14">
         <v>1119746</v>
@@ -2279,27 +2033,27 @@
         <v>1718348</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="C37" s="16">
         <v>1427739</v>
@@ -2308,27 +2062,27 @@
         <v>1715479</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C38" s="14">
         <v>1593745</v>
@@ -2337,27 +2091,27 @@
         <v>1633858</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C39" s="14">
         <v>1511621</v>
@@ -2366,27 +2120,27 @@
         <v>1716991</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C40" s="14">
         <v>1419319</v>
@@ -2395,27 +2149,27 @@
         <v>1685116</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C41" s="14">
         <v>1950415</v>
@@ -2424,27 +2178,27 @@
         <v>1624828</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C42" s="12">
         <v>1617359</v>
@@ -2453,27 +2207,27 @@
         <v>1618769</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C43" s="16">
         <v>1471604</v>
@@ -2482,27 +2236,27 @@
         <v>1957514</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C44" s="14">
         <v>1475255</v>
@@ -2511,27 +2265,27 @@
         <v>1709983</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C45" s="14">
         <v>1786186</v>
@@ -2540,27 +2294,27 @@
         <v>1502972</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C46" s="14">
         <v>2007586</v>
@@ -2569,27 +2323,27 @@
         <v>1766463</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C47" s="14">
         <v>1719414</v>
@@ -2598,27 +2352,27 @@
         <v>1597292</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C48" s="14">
         <v>1622550</v>
@@ -2627,27 +2381,27 @@
         <v>1668466</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="15" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C49" s="16">
         <v>1725974</v>
@@ -2656,27 +2410,27 @@
         <v>1786414</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C50" s="14">
         <v>1641608</v>
@@ -2685,27 +2439,27 @@
         <v>1665842</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C51" s="12">
         <v>1413276</v>
@@ -2714,27 +2468,27 @@
         <v>1637323</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C52" s="12">
         <v>1487667</v>
@@ -2743,27 +2497,27 @@
         <v>1645143</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C53" s="12">
         <v>1467507</v>
@@ -2772,27 +2526,27 @@
         <v>1599400</v>
       </c>
       <c r="E53" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="I53" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C54" s="14">
         <v>1309009</v>
@@ -2801,27 +2555,27 @@
         <v>1541006</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H54" s="14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I54" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="15" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C55" s="16">
         <v>1525123</v>
@@ -2830,27 +2584,27 @@
         <v>1685141</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="C56" s="3">
         <v>1505601</v>
@@ -2859,27 +2613,27 @@
         <v>1567807</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="C57" s="6">
         <v>1471397</v>
@@ -2888,27 +2642,27 @@
         <v>1595547</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="C58" s="3">
         <v>1593339</v>
@@ -2917,27 +2671,27 @@
         <v>1803416</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="C59" s="3">
         <v>1393890</v>
@@ -2946,27 +2700,27 @@
         <v>1647487</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
-        <v>205</v>
+        <v>135</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="C60" s="4">
         <v>1262138</v>
@@ -2975,27 +2729,27 @@
         <v>1544244</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="C61" s="9">
         <v>2027990</v>
@@ -3004,27 +2758,27 @@
         <v>1594680</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="C62" s="3">
         <v>1855061</v>
@@ -3033,27 +2787,27 @@
         <v>1682433</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="C63" s="3">
         <v>1502623</v>
@@ -3062,27 +2816,27 @@
         <v>1807450</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="C64" s="3">
         <v>1928068</v>
@@ -3091,27 +2845,27 @@
         <v>1669304</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="C65" s="3">
         <v>1756449</v>
@@ -3120,27 +2874,27 @@
         <v>1817963</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>224</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>225</v>
+        <v>148</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="C66" s="3">
         <v>1620397</v>
@@ -3149,27 +2903,27 @@
         <v>1777054</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="C67" s="9">
         <v>1890487</v>
@@ -3178,27 +2932,27 @@
         <v>1746053</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="C68" s="3">
         <v>1864077</v>
@@ -3207,27 +2961,27 @@
         <v>1891408</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>235</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="C69" s="3">
         <v>2155173</v>
@@ -3236,27 +2990,27 @@
         <v>1871483</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="C70" s="3">
         <v>1858722</v>
@@ -3265,27 +3019,27 @@
         <v>1594475</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="C71" s="3">
         <v>1936848</v>
@@ -3294,27 +3048,27 @@
         <v>1705881</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>243</v>
+        <v>160</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="C72" s="3">
         <v>1912596</v>
@@ -3323,27 +3077,27 @@
         <v>1845340</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="C73" s="6">
         <v>2014879</v>
@@ -3352,27 +3106,27 @@
         <v>1695956</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C74" s="6">
         <v>1441748</v>
@@ -3381,27 +3135,27 @@
         <v>1767090</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C75" s="3">
         <v>1821500</v>
@@ -3410,27 +3164,27 @@
         <v>1896179</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C76" s="3">
         <v>1674723</v>
@@ -3439,27 +3193,27 @@
         <v>1732373</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>260</v>
+        <v>171</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C77" s="3">
         <v>2163203</v>
@@ -3468,27 +3222,27 @@
         <v>1599355</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>265</v>
+        <v>174</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C78" s="3">
         <v>1647281</v>
@@ -3497,27 +3251,27 @@
         <v>1618977</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="C79" s="9">
         <v>1843394</v>
@@ -3526,19 +3280,19 @@
         <v>1638313</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>270</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
